--- a/core/src/test/resources/yo/dbunitcli/application/settings/generate/table/template.xlsx
+++ b/core/src/test/resources/yo/dbunitcli/application/settings/generate/table/template.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="シート2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="シート1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="シート2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,23 +23,19 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="游ゴシック"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    jx:area(lastCell="C4")</t>
+          <t xml:space="preserve">jx:area(lastCell="C4")</t>
         </r>
       </text>
     </comment>
@@ -47,16 +43,12 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="游ゴシック"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    jx:each(items="param.rows" var="row" lastCell="C4")</t>
+          <t xml:space="preserve">jx:each(items="param.rows" var="row" lastCell="C4")</t>
         </r>
       </text>
     </comment>
@@ -67,23 +59,19 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="游ゴシック"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    jx:area(lastCell="F4")</t>
+          <t xml:space="preserve">jx:area(lastCell="F4")</t>
         </r>
       </text>
     </comment>
@@ -91,16 +79,12 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="游ゴシック"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    jx:each(items="param.rows" var="row" lastCell="F4")</t>
+          <t xml:space="preserve">jx:each(items="param.rows" var="row" lastCell="F4")</t>
         </r>
       </text>
     </comment>
@@ -148,11 +132,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -184,6 +167,12 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -255,32 +244,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,15 +341,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -418,7 +509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -468,7 +559,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="5" t="str">
         <f aca="true" t="array" ref="A4:A4">INDIRECT("シート1!"&amp;"A4")</f>
         <v>${row.name}</v>
       </c>

--- a/core/src/test/resources/yo/dbunitcli/application/settings/generate/table/template.xlsx
+++ b/core/src/test/resources/yo/dbunitcli/application/settings/generate/table/template.xlsx
@@ -84,7 +84,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="param.rows" var="row" lastCell="F4")</t>
+          <t xml:space="preserve">jx:each(items="param.rows" var="row" varIndex=”index” lastCell="F4")</t>
         </r>
       </text>
     </comment>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t xml:space="preserve">クラス名</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t xml:space="preserve">コメント(参照)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$[シート1!A${index+4}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$[シート1!B${index+4}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$[シート1!C${index+4}]</t>
   </si>
 </sst>
 </file>
@@ -135,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,6 +181,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -244,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,6 +282,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,7 +475,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -516,7 +536,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -559,17 +579,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="str">
-        <f aca="true" t="array" ref="A4:A4">INDIRECT("シート1!"&amp;"A4")</f>
-        <v>${row.name}</v>
-      </c>
-      <c r="B4" s="5" t="str">
-        <f aca="true" t="array" ref="B4:B4">INDIRECT("シート1!"&amp;"B4")</f>
-        <v>${row.dataType}</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f aca="true" t="array" ref="C4:C4">INDIRECT("シート1!"&amp;"C4")</f>
-        <v>${row.comment}</v>
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>

--- a/core/src/test/resources/yo/dbunitcli/application/settings/generate/table/template.xlsx
+++ b/core/src/test/resources/yo/dbunitcli/application/settings/generate/table/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" state="visible" r:id="rId3"/>
@@ -144,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,6 +178,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -191,12 +199,24 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -235,7 +255,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,6 +279,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -269,7 +301,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,7 +309,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,19 +317,63 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="無題1" xfId="20"/>
+    <cellStyle name="無題2" xfId="21"/>
+    <cellStyle name="無題3" xfId="22"/>
+    <cellStyle name="無題4" xfId="23"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="ＭＳ ゴシック"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="ＭＳ ゴシック"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6F9D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="ＭＳ ゴシック"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -318,7 +394,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -474,8 +550,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -535,8 +611,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,7 +620,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.61"/>
@@ -579,7 +655,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -599,6 +675,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D4 F4">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>EXACT(A4,D4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>EXACT(A4,D4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"String"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
